--- a/TestMNIST/MatlabCodes/test_label.xlsx
+++ b/TestMNIST/MatlabCodes/test_label.xlsx
@@ -411,12 +411,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -431,7 +431,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -441,7 +441,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -456,7 +456,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -471,7 +471,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -486,7 +486,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -566,12 +566,12 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -581,7 +581,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -591,7 +591,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
@@ -611,7 +611,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
@@ -646,17 +646,17 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
@@ -671,12 +671,12 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
@@ -686,7 +686,7 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
@@ -696,7 +696,7 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
@@ -711,22 +711,22 @@
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
@@ -736,7 +736,7 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
@@ -751,7 +751,7 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
@@ -771,7 +771,7 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
@@ -786,17 +786,17 @@
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
@@ -811,12 +811,12 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
@@ -826,7 +826,7 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
@@ -841,7 +841,7 @@
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
@@ -856,7 +856,7 @@
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
@@ -871,17 +871,17 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
@@ -891,7 +891,7 @@
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
@@ -901,7 +901,7 @@
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
@@ -916,12 +916,12 @@
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
@@ -946,12 +946,12 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
@@ -966,7 +966,7 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
@@ -976,7 +976,7 @@
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
@@ -996,7 +996,7 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
@@ -1006,7 +1006,7 @@
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
@@ -1021,7 +1021,7 @@
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
@@ -1031,22 +1031,22 @@
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
@@ -1056,12 +1056,12 @@
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
@@ -1071,7 +1071,7 @@
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
@@ -1086,7 +1086,7 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
@@ -1096,27 +1096,27 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
@@ -1141,17 +1141,17 @@
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
@@ -1161,12 +1161,12 @@
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
@@ -1176,7 +1176,7 @@
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
@@ -1186,7 +1186,7 @@
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
@@ -1196,12 +1196,12 @@
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
@@ -1211,7 +1211,7 @@
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
@@ -1226,12 +1226,12 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
@@ -1246,12 +1246,12 @@
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
@@ -1261,17 +1261,17 @@
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
@@ -1286,32 +1286,32 @@
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
@@ -1321,22 +1321,22 @@
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
@@ -1376,12 +1376,12 @@
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
@@ -1396,7 +1396,7 @@
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
@@ -1411,12 +1411,12 @@
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
@@ -1431,27 +1431,27 @@
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
@@ -1481,12 +1481,12 @@
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
@@ -1496,12 +1496,12 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
@@ -1521,7 +1521,7 @@
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
@@ -1531,7 +1531,7 @@
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
@@ -1546,12 +1546,12 @@
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
@@ -1571,12 +1571,12 @@
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
@@ -1591,22 +1591,22 @@
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
@@ -1616,7 +1616,7 @@
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
@@ -1626,12 +1626,12 @@
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
@@ -1641,17 +1641,17 @@
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
@@ -1661,12 +1661,12 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
@@ -1676,22 +1676,22 @@
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
@@ -1701,12 +1701,12 @@
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
@@ -1721,12 +1721,12 @@
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
@@ -1741,12 +1741,12 @@
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
@@ -1756,7 +1756,7 @@
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
@@ -1771,7 +1771,7 @@
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
@@ -1781,12 +1781,12 @@
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
@@ -1816,12 +1816,12 @@
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
@@ -1831,7 +1831,7 @@
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
@@ -1846,27 +1846,27 @@
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
@@ -1876,7 +1876,7 @@
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
@@ -1886,12 +1886,12 @@
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
@@ -1911,27 +1911,27 @@
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
@@ -1946,7 +1946,7 @@
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
@@ -1956,7 +1956,7 @@
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
@@ -1966,12 +1966,12 @@
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
@@ -1986,7 +1986,7 @@
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
@@ -2021,22 +2021,22 @@
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
@@ -2051,7 +2051,7 @@
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
@@ -2061,7 +2061,7 @@
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
@@ -2076,7 +2076,7 @@
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
@@ -2086,17 +2086,17 @@
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
@@ -2106,12 +2106,12 @@
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
@@ -2121,7 +2121,7 @@
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
@@ -2136,17 +2136,17 @@
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
@@ -2156,7 +2156,7 @@
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
@@ -2196,7 +2196,7 @@
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
@@ -2206,12 +2206,12 @@
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
@@ -2236,7 +2236,7 @@
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
@@ -2246,7 +2246,7 @@
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
@@ -2256,7 +2256,7 @@
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
@@ -2266,7 +2266,7 @@
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
@@ -2281,7 +2281,7 @@
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
@@ -2301,7 +2301,7 @@
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
@@ -2316,27 +2316,27 @@
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
@@ -2346,12 +2346,12 @@
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
@@ -2366,7 +2366,7 @@
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
@@ -2391,7 +2391,7 @@
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
@@ -2421,17 +2421,17 @@
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
@@ -2466,7 +2466,7 @@
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
@@ -2486,12 +2486,12 @@
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
@@ -2501,22 +2501,22 @@
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
@@ -2526,7 +2526,7 @@
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
@@ -2536,7 +2536,7 @@
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
@@ -2561,17 +2561,17 @@
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
@@ -2581,7 +2581,7 @@
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
@@ -2591,7 +2591,7 @@
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
@@ -2606,7 +2606,7 @@
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
@@ -2616,12 +2616,12 @@
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
@@ -2631,7 +2631,7 @@
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
@@ -2641,22 +2641,22 @@
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
@@ -2666,12 +2666,12 @@
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
@@ -2681,12 +2681,12 @@
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
@@ -2701,12 +2701,12 @@
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
@@ -2721,7 +2721,7 @@
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
@@ -2736,17 +2736,17 @@
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
@@ -2756,7 +2756,7 @@
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
@@ -2771,12 +2771,12 @@
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
@@ -2791,27 +2791,27 @@
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
@@ -2821,7 +2821,7 @@
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
@@ -2831,7 +2831,7 @@
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
@@ -2841,12 +2841,12 @@
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
@@ -2861,7 +2861,7 @@
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
@@ -2876,12 +2876,12 @@
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
@@ -2891,17 +2891,17 @@
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
@@ -2911,17 +2911,17 @@
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
@@ -2936,17 +2936,17 @@
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
@@ -2971,7 +2971,7 @@
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
@@ -3001,22 +3001,22 @@
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
@@ -3036,22 +3036,22 @@
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
@@ -3076,12 +3076,12 @@
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
@@ -3116,7 +3116,7 @@
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
@@ -3126,7 +3126,7 @@
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
@@ -3146,7 +3146,7 @@
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
@@ -3161,27 +3161,27 @@
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
@@ -3196,7 +3196,7 @@
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
@@ -3211,12 +3211,12 @@
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
@@ -3226,7 +3226,7 @@
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
@@ -3236,32 +3236,32 @@
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
@@ -3286,7 +3286,7 @@
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
@@ -3306,17 +3306,17 @@
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
@@ -3331,7 +3331,7 @@
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
@@ -3371,12 +3371,12 @@
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
@@ -3386,7 +3386,7 @@
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
@@ -3406,12 +3406,12 @@
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
@@ -3421,32 +3421,32 @@
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
@@ -3461,17 +3461,17 @@
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
@@ -3496,7 +3496,7 @@
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
@@ -3511,12 +3511,12 @@
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
@@ -3531,7 +3531,7 @@
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
@@ -3551,22 +3551,22 @@
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
@@ -3576,7 +3576,7 @@
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
@@ -3586,7 +3586,7 @@
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
@@ -3601,7 +3601,7 @@
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
@@ -3611,12 +3611,12 @@
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
@@ -3626,12 +3626,12 @@
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
@@ -3641,7 +3641,7 @@
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
@@ -3656,17 +3656,17 @@
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
@@ -3676,7 +3676,7 @@
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
@@ -3701,12 +3701,12 @@
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
@@ -3716,17 +3716,17 @@
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
@@ -3736,7 +3736,7 @@
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
@@ -3746,7 +3746,7 @@
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
@@ -3756,17 +3756,17 @@
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
@@ -3776,12 +3776,12 @@
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
@@ -3811,7 +3811,7 @@
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
@@ -3836,7 +3836,7 @@
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
@@ -3846,7 +3846,7 @@
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
@@ -3866,7 +3866,7 @@
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
@@ -3876,7 +3876,7 @@
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
@@ -3896,7 +3896,7 @@
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
@@ -3906,7 +3906,7 @@
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
@@ -3921,7 +3921,7 @@
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
@@ -3941,7 +3941,7 @@
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
@@ -3956,7 +3956,7 @@
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
@@ -3966,12 +3966,12 @@
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
@@ -4006,7 +4006,7 @@
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
@@ -4016,17 +4016,17 @@
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A723">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A724">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
@@ -4051,17 +4051,17 @@
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
@@ -4081,27 +4081,27 @@
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
@@ -4116,22 +4116,22 @@
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A742">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A744">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A745">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
@@ -4141,22 +4141,22 @@
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A747">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A748">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A749">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A750">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
@@ -4171,12 +4171,12 @@
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A753">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A754">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
@@ -4186,12 +4186,12 @@
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
@@ -4201,32 +4201,32 @@
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
@@ -4241,17 +4241,17 @@
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
@@ -4296,12 +4296,12 @@
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
@@ -4311,7 +4311,7 @@
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
@@ -4321,7 +4321,7 @@
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
@@ -4331,7 +4331,7 @@
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
@@ -4341,7 +4341,7 @@
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A787">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
@@ -4356,7 +4356,7 @@
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
@@ -4366,12 +4366,12 @@
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A792">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
@@ -4391,7 +4391,7 @@
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A797">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
@@ -4401,7 +4401,7 @@
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A799">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
@@ -4411,12 +4411,12 @@
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A801">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A802">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.25">
@@ -4426,17 +4426,17 @@
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A804">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A805">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A806">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.25">
@@ -4456,12 +4456,12 @@
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A810">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A811">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
@@ -4471,22 +4471,22 @@
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A813">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A814">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A815">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A816">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
@@ -4506,7 +4506,7 @@
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A820">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
@@ -4526,12 +4526,12 @@
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A824">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A825">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
@@ -4551,12 +4551,12 @@
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A829">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A830">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
@@ -4576,7 +4576,7 @@
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A834">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
@@ -4586,7 +4586,7 @@
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A836">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
@@ -4606,12 +4606,12 @@
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A840">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A841">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
@@ -4621,17 +4621,17 @@
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A843">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A844">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A845">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
@@ -4641,7 +4641,7 @@
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A847">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
@@ -4651,12 +4651,12 @@
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A849">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A850">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
@@ -4666,7 +4666,7 @@
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A852">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
@@ -4676,22 +4676,22 @@
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A854">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A855">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A856">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A857">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
@@ -4701,7 +4701,7 @@
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A859">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
@@ -4711,12 +4711,12 @@
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A861">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A862">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
@@ -4726,17 +4726,17 @@
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A864">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A865">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A866">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
@@ -4756,7 +4756,7 @@
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A870">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
@@ -4776,7 +4776,7 @@
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A874">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
@@ -4791,17 +4791,17 @@
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A877">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A878">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A879">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
@@ -4826,7 +4826,7 @@
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A884">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
@@ -4836,7 +4836,7 @@
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A886">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
@@ -4851,7 +4851,7 @@
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A889">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
@@ -4861,7 +4861,7 @@
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A891">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
@@ -4881,7 +4881,7 @@
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A895">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
@@ -4911,17 +4911,17 @@
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A901">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A902">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A903">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
@@ -4946,12 +4946,12 @@
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A908">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A909">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
@@ -4961,7 +4961,7 @@
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A911">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
@@ -4981,12 +4981,12 @@
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A915">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A916">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
@@ -4996,7 +4996,7 @@
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A918">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
@@ -5016,12 +5016,12 @@
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A922">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
@@ -5036,12 +5036,12 @@
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A926">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A927">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
@@ -5051,12 +5051,12 @@
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A929">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A930">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
@@ -5071,7 +5071,7 @@
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A933">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
@@ -5081,7 +5081,7 @@
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A935">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
@@ -5091,22 +5091,22 @@
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A937">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A938">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A939">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A940">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
@@ -5116,7 +5116,7 @@
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A942">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.25">
@@ -5126,12 +5126,12 @@
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A944">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A945">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.25">
@@ -5141,17 +5141,17 @@
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A947">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A948">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A949">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.25">
@@ -5181,22 +5181,22 @@
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A955">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A956">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A957">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A958">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.25">
@@ -5231,12 +5231,12 @@
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A965">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A966">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.25">
@@ -5246,12 +5246,12 @@
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A968">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A969">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.25">
@@ -5266,7 +5266,7 @@
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A972">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.25">
@@ -5276,7 +5276,7 @@
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A974">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.25">
@@ -5286,7 +5286,7 @@
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A976">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.25">
@@ -5296,32 +5296,32 @@
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A978">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A979">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A980">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A981">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A982">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A983">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.25">
@@ -5336,12 +5336,12 @@
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A986">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A987">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.25">
@@ -5351,12 +5351,12 @@
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A989">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A990">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.25">
@@ -5366,12 +5366,12 @@
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A992">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A993">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.25">
@@ -5381,7 +5381,7 @@
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A995">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.25">
@@ -5396,12 +5396,12 @@
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A998">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A999">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
@@ -5411,37 +5411,37 @@
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1001">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1002">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1003">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1004">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1005">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1006">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1007">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
@@ -5451,12 +5451,12 @@
     </row>
     <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1009">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1010">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
@@ -5471,7 +5471,7 @@
     </row>
     <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1013">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
@@ -5486,27 +5486,27 @@
     </row>
     <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1016">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1017">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1018">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1019">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1020">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
@@ -5516,17 +5516,17 @@
     </row>
     <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1022">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1023">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1024">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
@@ -5551,7 +5551,7 @@
     </row>
     <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1029">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
@@ -5566,7 +5566,7 @@
     </row>
     <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1032">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
@@ -5601,12 +5601,12 @@
     </row>
     <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1039">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1040">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
@@ -5621,12 +5621,12 @@
     </row>
     <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1043">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1044">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
@@ -5641,17 +5641,17 @@
     </row>
     <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1047">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1048">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1049">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
@@ -5661,7 +5661,7 @@
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1051">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
@@ -5671,7 +5671,7 @@
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1053">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
@@ -5681,17 +5681,17 @@
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1055">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1056">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1057">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
@@ -5711,17 +5711,17 @@
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1061">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1062">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1063">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
@@ -5736,17 +5736,17 @@
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1066">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1067">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1068">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
@@ -5756,7 +5756,7 @@
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1070">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
@@ -5771,7 +5771,7 @@
     </row>
     <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1073">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
@@ -5781,7 +5781,7 @@
     </row>
     <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1075">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
@@ -5791,22 +5791,22 @@
     </row>
     <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1077">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1078">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1079">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1080">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
@@ -5816,12 +5816,12 @@
     </row>
     <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1082">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1083">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
@@ -5831,12 +5831,12 @@
     </row>
     <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1085">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1086">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
@@ -5851,7 +5851,7 @@
     </row>
     <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1089">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
@@ -5861,7 +5861,7 @@
     </row>
     <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1091">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
@@ -5871,32 +5871,32 @@
     </row>
     <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1093">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1094">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1095">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1096">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1097">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1098">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
@@ -5916,7 +5916,7 @@
     </row>
     <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1102">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
@@ -5931,12 +5931,12 @@
     </row>
     <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1105">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1106">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
@@ -5951,7 +5951,7 @@
     </row>
     <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1109">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1110" spans="1:1" x14ac:dyDescent="0.25">
@@ -5976,12 +5976,12 @@
     </row>
     <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1114">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1115">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
@@ -5996,7 +5996,7 @@
     </row>
     <row r="1118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1118">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
@@ -6006,7 +6006,7 @@
     </row>
     <row r="1120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1120">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
@@ -6026,7 +6026,7 @@
     </row>
     <row r="1124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1124">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
@@ -6061,7 +6061,7 @@
     </row>
     <row r="1131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1131">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1132" spans="1:1" x14ac:dyDescent="0.25">
@@ -6071,7 +6071,7 @@
     </row>
     <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1133">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1134" spans="1:1" x14ac:dyDescent="0.25">
@@ -6081,7 +6081,7 @@
     </row>
     <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1135">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
@@ -6091,7 +6091,7 @@
     </row>
     <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1137">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
@@ -6101,7 +6101,7 @@
     </row>
     <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1139">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
@@ -6121,7 +6121,7 @@
     </row>
     <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1143">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
@@ -6131,17 +6131,17 @@
     </row>
     <row r="1145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1145">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1146">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1147">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1148" spans="1:1" x14ac:dyDescent="0.25">
@@ -6161,12 +6161,12 @@
     </row>
     <row r="1151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1151">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1152">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1153" spans="1:1" x14ac:dyDescent="0.25">
@@ -6191,7 +6191,7 @@
     </row>
     <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1157">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1158" spans="1:1" x14ac:dyDescent="0.25">
@@ -6201,12 +6201,12 @@
     </row>
     <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1159">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1160">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1161" spans="1:1" x14ac:dyDescent="0.25">
@@ -6221,17 +6221,17 @@
     </row>
     <row r="1163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1163">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1164">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1165">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1166" spans="1:1" x14ac:dyDescent="0.25">
@@ -6241,7 +6241,7 @@
     </row>
     <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1167">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1168" spans="1:1" x14ac:dyDescent="0.25">
@@ -6256,12 +6256,12 @@
     </row>
     <row r="1170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1170">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1171">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1172" spans="1:1" x14ac:dyDescent="0.25">
@@ -6271,12 +6271,12 @@
     </row>
     <row r="1173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1173">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1174">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1175" spans="1:1" x14ac:dyDescent="0.25">
@@ -6286,7 +6286,7 @@
     </row>
     <row r="1176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1176">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1177" spans="1:1" x14ac:dyDescent="0.25">
@@ -6306,12 +6306,12 @@
     </row>
     <row r="1180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1180">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1181">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1182" spans="1:1" x14ac:dyDescent="0.25">
@@ -6321,27 +6321,27 @@
     </row>
     <row r="1183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1183">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1184">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1185">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1186">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1187">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1188" spans="1:1" x14ac:dyDescent="0.25">
@@ -6351,17 +6351,17 @@
     </row>
     <row r="1189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1189">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1190">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1191">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1192" spans="1:1" x14ac:dyDescent="0.25">
@@ -6371,12 +6371,12 @@
     </row>
     <row r="1193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1193">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1194">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1195" spans="1:1" x14ac:dyDescent="0.25">
@@ -6396,7 +6396,7 @@
     </row>
     <row r="1198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1198">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1199" spans="1:1" x14ac:dyDescent="0.25">
@@ -6406,7 +6406,7 @@
     </row>
     <row r="1200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1200">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1201" spans="1:1" x14ac:dyDescent="0.25">
@@ -6421,7 +6421,7 @@
     </row>
     <row r="1203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1203">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1204" spans="1:1" x14ac:dyDescent="0.25">
@@ -6431,7 +6431,7 @@
     </row>
     <row r="1205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1205">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1206" spans="1:1" x14ac:dyDescent="0.25">
@@ -6441,7 +6441,7 @@
     </row>
     <row r="1207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1207">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1208" spans="1:1" x14ac:dyDescent="0.25">
@@ -6461,12 +6461,12 @@
     </row>
     <row r="1211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1211">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1212">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1213" spans="1:1" x14ac:dyDescent="0.25">
@@ -6476,12 +6476,12 @@
     </row>
     <row r="1214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1214">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1215">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1216" spans="1:1" x14ac:dyDescent="0.25">
@@ -6496,7 +6496,7 @@
     </row>
     <row r="1218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1218">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1219" spans="1:1" x14ac:dyDescent="0.25">
@@ -6511,7 +6511,7 @@
     </row>
     <row r="1221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1221">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
@@ -6526,22 +6526,22 @@
     </row>
     <row r="1224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1224">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1225">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1226">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1227">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1228" spans="1:1" x14ac:dyDescent="0.25">
@@ -6551,12 +6551,12 @@
     </row>
     <row r="1229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1229">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1230">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1231" spans="1:1" x14ac:dyDescent="0.25">
@@ -6576,12 +6576,12 @@
     </row>
     <row r="1234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1234">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1235">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1236" spans="1:1" x14ac:dyDescent="0.25">
@@ -6591,22 +6591,22 @@
     </row>
     <row r="1237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1237">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1238">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1239">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1240">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1241" spans="1:1" x14ac:dyDescent="0.25">
@@ -6626,12 +6626,12 @@
     </row>
     <row r="1244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1244">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1245">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1246" spans="1:1" x14ac:dyDescent="0.25">
@@ -6646,7 +6646,7 @@
     </row>
     <row r="1248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1248">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1249" spans="1:1" x14ac:dyDescent="0.25">
@@ -6666,7 +6666,7 @@
     </row>
     <row r="1252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1252">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1253" spans="1:1" x14ac:dyDescent="0.25">
@@ -6681,12 +6681,12 @@
     </row>
     <row r="1255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1255">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1256">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1257" spans="1:1" x14ac:dyDescent="0.25">
@@ -6706,7 +6706,7 @@
     </row>
     <row r="1260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1260">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1261" spans="1:1" x14ac:dyDescent="0.25">
@@ -6716,7 +6716,7 @@
     </row>
     <row r="1262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1262">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1263" spans="1:1" x14ac:dyDescent="0.25">
@@ -6736,7 +6736,7 @@
     </row>
     <row r="1266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1266">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1267" spans="1:1" x14ac:dyDescent="0.25">
@@ -6746,7 +6746,7 @@
     </row>
     <row r="1268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1268">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1269" spans="1:1" x14ac:dyDescent="0.25">
@@ -6756,12 +6756,12 @@
     </row>
     <row r="1270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1270">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1271">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1272" spans="1:1" x14ac:dyDescent="0.25">
@@ -6786,7 +6786,7 @@
     </row>
     <row r="1276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1276">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1277" spans="1:1" x14ac:dyDescent="0.25">
@@ -6796,7 +6796,7 @@
     </row>
     <row r="1278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1278">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1279" spans="1:1" x14ac:dyDescent="0.25">
@@ -6806,12 +6806,12 @@
     </row>
     <row r="1280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1280">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1281">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1282" spans="1:1" x14ac:dyDescent="0.25">
@@ -6826,12 +6826,12 @@
     </row>
     <row r="1284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1284">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1285">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1286" spans="1:1" x14ac:dyDescent="0.25">
@@ -6851,22 +6851,22 @@
     </row>
     <row r="1289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1289">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1290">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1291">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1292">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1293" spans="1:1" x14ac:dyDescent="0.25">
@@ -6876,22 +6876,22 @@
     </row>
     <row r="1294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1294">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1295">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1296">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1297">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1298" spans="1:1" x14ac:dyDescent="0.25">
@@ -6906,7 +6906,7 @@
     </row>
     <row r="1300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1300">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1301" spans="1:1" x14ac:dyDescent="0.25">
@@ -6921,17 +6921,17 @@
     </row>
     <row r="1303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1303">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1304">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1305">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1306" spans="1:1" x14ac:dyDescent="0.25">
@@ -6946,12 +6946,12 @@
     </row>
     <row r="1308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1308">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1309">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1310" spans="1:1" x14ac:dyDescent="0.25">
@@ -6961,7 +6961,7 @@
     </row>
     <row r="1311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1311">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1312" spans="1:1" x14ac:dyDescent="0.25">
@@ -6971,7 +6971,7 @@
     </row>
     <row r="1313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1313">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1314" spans="1:1" x14ac:dyDescent="0.25">
@@ -6981,12 +6981,12 @@
     </row>
     <row r="1315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1315">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1316">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1317" spans="1:1" x14ac:dyDescent="0.25">
@@ -6996,7 +6996,7 @@
     </row>
     <row r="1318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1318">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1319" spans="1:1" x14ac:dyDescent="0.25">
@@ -7006,17 +7006,17 @@
     </row>
     <row r="1320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1320">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1321">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1322">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1323" spans="1:1" x14ac:dyDescent="0.25">
@@ -7026,7 +7026,7 @@
     </row>
     <row r="1324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1324">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1325" spans="1:1" x14ac:dyDescent="0.25">
@@ -7041,17 +7041,17 @@
     </row>
     <row r="1327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1327">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1328">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1329">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1330" spans="1:1" x14ac:dyDescent="0.25">
@@ -7061,7 +7061,7 @@
     </row>
     <row r="1331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1331">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1332" spans="1:1" x14ac:dyDescent="0.25">
@@ -7076,17 +7076,17 @@
     </row>
     <row r="1334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1334">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1335">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1336">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1337" spans="1:1" x14ac:dyDescent="0.25">
@@ -7096,12 +7096,12 @@
     </row>
     <row r="1338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1338">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1339">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1340" spans="1:1" x14ac:dyDescent="0.25">
@@ -7126,12 +7126,12 @@
     </row>
     <row r="1344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1344">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1345">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1346" spans="1:1" x14ac:dyDescent="0.25">
@@ -7141,7 +7141,7 @@
     </row>
     <row r="1347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1347">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1348" spans="1:1" x14ac:dyDescent="0.25">
@@ -7166,7 +7166,7 @@
     </row>
     <row r="1352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1352">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1353" spans="1:1" x14ac:dyDescent="0.25">
@@ -7176,7 +7176,7 @@
     </row>
     <row r="1354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1354">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1355" spans="1:1" x14ac:dyDescent="0.25">
@@ -7206,17 +7206,17 @@
     </row>
     <row r="1360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1360">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1361">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1362">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1363" spans="1:1" x14ac:dyDescent="0.25">
@@ -7226,7 +7226,7 @@
     </row>
     <row r="1364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1364">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1365" spans="1:1" x14ac:dyDescent="0.25">
@@ -7236,7 +7236,7 @@
     </row>
     <row r="1366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1366">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1367" spans="1:1" x14ac:dyDescent="0.25">
@@ -7246,7 +7246,7 @@
     </row>
     <row r="1368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1368">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1369" spans="1:1" x14ac:dyDescent="0.25">
@@ -7271,7 +7271,7 @@
     </row>
     <row r="1373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1373">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1374" spans="1:1" x14ac:dyDescent="0.25">
@@ -7296,12 +7296,12 @@
     </row>
     <row r="1378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1378">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1379">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1380" spans="1:1" x14ac:dyDescent="0.25">
@@ -7331,7 +7331,7 @@
     </row>
     <row r="1385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1385">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1386" spans="1:1" x14ac:dyDescent="0.25">
@@ -7341,22 +7341,22 @@
     </row>
     <row r="1387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1387">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1388">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1389">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1390">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1391" spans="1:1" x14ac:dyDescent="0.25">
@@ -7386,7 +7386,7 @@
     </row>
     <row r="1396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1396">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1397" spans="1:1" x14ac:dyDescent="0.25">
@@ -7406,7 +7406,7 @@
     </row>
     <row r="1400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1400">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1401" spans="1:1" x14ac:dyDescent="0.25">
@@ -7421,7 +7421,7 @@
     </row>
     <row r="1403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1403">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1404" spans="1:1" x14ac:dyDescent="0.25">
@@ -7431,7 +7431,7 @@
     </row>
     <row r="1405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1405">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1406" spans="1:1" x14ac:dyDescent="0.25">
@@ -7441,17 +7441,17 @@
     </row>
     <row r="1407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1407">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1408">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1409">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1410" spans="1:1" x14ac:dyDescent="0.25">
@@ -7466,17 +7466,17 @@
     </row>
     <row r="1412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1412">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1413">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1414">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1415" spans="1:1" x14ac:dyDescent="0.25">
@@ -7491,7 +7491,7 @@
     </row>
     <row r="1417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1417">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1418" spans="1:1" x14ac:dyDescent="0.25">
@@ -7501,12 +7501,12 @@
     </row>
     <row r="1419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1419">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1420">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1421" spans="1:1" x14ac:dyDescent="0.25">
@@ -7521,17 +7521,17 @@
     </row>
     <row r="1423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1423">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1424">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1425">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1426" spans="1:1" x14ac:dyDescent="0.25">
@@ -7551,22 +7551,22 @@
     </row>
     <row r="1429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1429">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1430">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1431">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1432">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1433" spans="1:1" x14ac:dyDescent="0.25">
@@ -7581,7 +7581,7 @@
     </row>
     <row r="1435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1435">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1436" spans="1:1" x14ac:dyDescent="0.25">
@@ -7601,7 +7601,7 @@
     </row>
     <row r="1439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1439">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1440" spans="1:1" x14ac:dyDescent="0.25">
@@ -7611,7 +7611,7 @@
     </row>
     <row r="1441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1441">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1442" spans="1:1" x14ac:dyDescent="0.25">
@@ -7631,7 +7631,7 @@
     </row>
     <row r="1445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1445">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1446" spans="1:1" x14ac:dyDescent="0.25">
@@ -7681,7 +7681,7 @@
     </row>
     <row r="1455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1455">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1456" spans="1:1" x14ac:dyDescent="0.25">
@@ -7701,27 +7701,27 @@
     </row>
     <row r="1459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1459">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1460">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1461">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1462">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1463">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1464" spans="1:1" x14ac:dyDescent="0.25">
@@ -7736,17 +7736,17 @@
     </row>
     <row r="1466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1466">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1467">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1468">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1469" spans="1:1" x14ac:dyDescent="0.25">
@@ -7756,7 +7756,7 @@
     </row>
     <row r="1470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1470">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1471" spans="1:1" x14ac:dyDescent="0.25">
@@ -7766,7 +7766,7 @@
     </row>
     <row r="1472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1472">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1473" spans="1:1" x14ac:dyDescent="0.25">
@@ -7776,7 +7776,7 @@
     </row>
     <row r="1474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1474">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1475" spans="1:1" x14ac:dyDescent="0.25">
@@ -7791,7 +7791,7 @@
     </row>
     <row r="1477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1477">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1478" spans="1:1" x14ac:dyDescent="0.25">
@@ -7801,7 +7801,7 @@
     </row>
     <row r="1479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1479">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1480" spans="1:1" x14ac:dyDescent="0.25">
@@ -7821,22 +7821,22 @@
     </row>
     <row r="1483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1483">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1484">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1485">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1486">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1487" spans="1:1" x14ac:dyDescent="0.25">
@@ -7851,7 +7851,7 @@
     </row>
     <row r="1489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1489">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1490" spans="1:1" x14ac:dyDescent="0.25">
@@ -7861,7 +7861,7 @@
     </row>
     <row r="1491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1491">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1492" spans="1:1" x14ac:dyDescent="0.25">
@@ -7901,7 +7901,7 @@
     </row>
     <row r="1499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1499">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1500" spans="1:1" x14ac:dyDescent="0.25">
@@ -7916,12 +7916,12 @@
     </row>
     <row r="1502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1502">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1503">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1504" spans="1:1" x14ac:dyDescent="0.25">
@@ -7931,7 +7931,7 @@
     </row>
     <row r="1505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1505">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1506" spans="1:1" x14ac:dyDescent="0.25">
@@ -7946,7 +7946,7 @@
     </row>
     <row r="1508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1508">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1509" spans="1:1" x14ac:dyDescent="0.25">
@@ -7956,7 +7956,7 @@
     </row>
     <row r="1510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1510">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1511" spans="1:1" x14ac:dyDescent="0.25">
@@ -7966,7 +7966,7 @@
     </row>
     <row r="1512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1512">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1513" spans="1:1" x14ac:dyDescent="0.25">
@@ -7981,7 +7981,7 @@
     </row>
     <row r="1515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1515">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1516" spans="1:1" x14ac:dyDescent="0.25">
@@ -7991,7 +7991,7 @@
     </row>
     <row r="1517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1517">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1518" spans="1:1" x14ac:dyDescent="0.25">
@@ -8011,17 +8011,17 @@
     </row>
     <row r="1521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1521">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1522">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1523">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1524" spans="1:1" x14ac:dyDescent="0.25">
@@ -8031,17 +8031,17 @@
     </row>
     <row r="1525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1525">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1526">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1527">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1528" spans="1:1" x14ac:dyDescent="0.25">
@@ -8056,22 +8056,22 @@
     </row>
     <row r="1530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1530">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1531">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1532">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1533">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1534" spans="1:1" x14ac:dyDescent="0.25">
@@ -8081,7 +8081,7 @@
     </row>
     <row r="1535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1535">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1536" spans="1:1" x14ac:dyDescent="0.25">
@@ -8106,12 +8106,12 @@
     </row>
     <row r="1540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1540">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1541">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1542" spans="1:1" x14ac:dyDescent="0.25">
@@ -8121,17 +8121,17 @@
     </row>
     <row r="1543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1543">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1544">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1545">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1546" spans="1:1" x14ac:dyDescent="0.25">
@@ -8146,7 +8146,7 @@
     </row>
     <row r="1548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1548">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1549" spans="1:1" x14ac:dyDescent="0.25">
@@ -8161,7 +8161,7 @@
     </row>
     <row r="1551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1551">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1552" spans="1:1" x14ac:dyDescent="0.25">
@@ -8201,7 +8201,7 @@
     </row>
     <row r="1559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1559">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1560" spans="1:1" x14ac:dyDescent="0.25">
@@ -8211,17 +8211,17 @@
     </row>
     <row r="1561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1561">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1562">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1563">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1564" spans="1:1" x14ac:dyDescent="0.25">
@@ -8236,7 +8236,7 @@
     </row>
     <row r="1566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1566">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1567" spans="1:1" x14ac:dyDescent="0.25">
@@ -8256,7 +8256,7 @@
     </row>
     <row r="1570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1570">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1571" spans="1:1" x14ac:dyDescent="0.25">
@@ -8276,12 +8276,12 @@
     </row>
     <row r="1574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1574">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1575">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1576" spans="1:1" x14ac:dyDescent="0.25">
@@ -8291,17 +8291,17 @@
     </row>
     <row r="1577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1577">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1578">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1579">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1580" spans="1:1" x14ac:dyDescent="0.25">
@@ -8311,12 +8311,12 @@
     </row>
     <row r="1581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1581">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1582">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1583" spans="1:1" x14ac:dyDescent="0.25">
@@ -8326,7 +8326,7 @@
     </row>
     <row r="1584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1584">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1585" spans="1:1" x14ac:dyDescent="0.25">
@@ -8336,27 +8336,27 @@
     </row>
     <row r="1586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1586">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1587">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1588">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1589">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1590">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1591" spans="1:1" x14ac:dyDescent="0.25">
@@ -8371,17 +8371,17 @@
     </row>
     <row r="1593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1593">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1594">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1595">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1596" spans="1:1" x14ac:dyDescent="0.25">
@@ -8391,22 +8391,22 @@
     </row>
     <row r="1597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1597">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1598">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1599">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1600">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1601" spans="1:1" x14ac:dyDescent="0.25">
@@ -8421,17 +8421,17 @@
     </row>
     <row r="1603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1603">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1604">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1605">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1606" spans="1:1" x14ac:dyDescent="0.25">
@@ -8441,12 +8441,12 @@
     </row>
     <row r="1607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1607">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1608">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1609" spans="1:1" x14ac:dyDescent="0.25">
@@ -8456,17 +8456,17 @@
     </row>
     <row r="1610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1610">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1611">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1612">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1613" spans="1:1" x14ac:dyDescent="0.25">
@@ -8481,17 +8481,17 @@
     </row>
     <row r="1615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1615">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1616">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1617">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1618" spans="1:1" x14ac:dyDescent="0.25">
@@ -8521,7 +8521,7 @@
     </row>
     <row r="1623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1623">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1624" spans="1:1" x14ac:dyDescent="0.25">
@@ -8536,7 +8536,7 @@
     </row>
     <row r="1626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1626">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1627" spans="1:1" x14ac:dyDescent="0.25">
@@ -8551,7 +8551,7 @@
     </row>
     <row r="1629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1629">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1630" spans="1:1" x14ac:dyDescent="0.25">
@@ -8561,12 +8561,12 @@
     </row>
     <row r="1631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1631">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1632">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1633" spans="1:1" x14ac:dyDescent="0.25">
@@ -8576,12 +8576,12 @@
     </row>
     <row r="1634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1634">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1635">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1636" spans="1:1" x14ac:dyDescent="0.25">
@@ -8596,7 +8596,7 @@
     </row>
     <row r="1638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1638">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1639" spans="1:1" x14ac:dyDescent="0.25">
@@ -8621,7 +8621,7 @@
     </row>
     <row r="1643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1643">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1644" spans="1:1" x14ac:dyDescent="0.25">
@@ -8631,12 +8631,12 @@
     </row>
     <row r="1645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1645">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1646">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1647" spans="1:1" x14ac:dyDescent="0.25">
@@ -8651,7 +8651,7 @@
     </row>
     <row r="1649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1649">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1650" spans="1:1" x14ac:dyDescent="0.25">
@@ -8666,7 +8666,7 @@
     </row>
     <row r="1652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1652">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1653" spans="1:1" x14ac:dyDescent="0.25">
@@ -8676,12 +8676,12 @@
     </row>
     <row r="1654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1654">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1655">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1656" spans="1:1" x14ac:dyDescent="0.25">
@@ -8701,7 +8701,7 @@
     </row>
     <row r="1659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1659">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1660" spans="1:1" x14ac:dyDescent="0.25">
@@ -8711,32 +8711,32 @@
     </row>
     <row r="1661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1661">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1662">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1663">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1664">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1665">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1666">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1667" spans="1:1" x14ac:dyDescent="0.25">
@@ -8746,7 +8746,7 @@
     </row>
     <row r="1668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1668">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1669" spans="1:1" x14ac:dyDescent="0.25">
@@ -8766,7 +8766,7 @@
     </row>
     <row r="1672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1672">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1673" spans="1:1" x14ac:dyDescent="0.25">
@@ -8776,7 +8776,7 @@
     </row>
     <row r="1674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1674">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1675" spans="1:1" x14ac:dyDescent="0.25">
@@ -8786,7 +8786,7 @@
     </row>
     <row r="1676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1676">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1677" spans="1:1" x14ac:dyDescent="0.25">
@@ -8806,7 +8806,7 @@
     </row>
     <row r="1680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1680">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1681" spans="1:1" x14ac:dyDescent="0.25">
@@ -8816,7 +8816,7 @@
     </row>
     <row r="1682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1682">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1683" spans="1:1" x14ac:dyDescent="0.25">
@@ -8826,17 +8826,17 @@
     </row>
     <row r="1684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1684">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1685">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1686">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1687" spans="1:1" x14ac:dyDescent="0.25">
@@ -8846,42 +8846,42 @@
     </row>
     <row r="1688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1688">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1689">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1690">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1691">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1692">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1693">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1694">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1695">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1696" spans="1:1" x14ac:dyDescent="0.25">
@@ -8891,7 +8891,7 @@
     </row>
     <row r="1697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1697">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1698" spans="1:1" x14ac:dyDescent="0.25">
@@ -8906,7 +8906,7 @@
     </row>
     <row r="1700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1700">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1701" spans="1:1" x14ac:dyDescent="0.25">
@@ -8941,7 +8941,7 @@
     </row>
     <row r="1707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1707">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1708" spans="1:1" x14ac:dyDescent="0.25">
@@ -8961,17 +8961,17 @@
     </row>
     <row r="1711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1711">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1712">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1713">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1714" spans="1:1" x14ac:dyDescent="0.25">
@@ -8996,12 +8996,12 @@
     </row>
     <row r="1718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1718">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1719">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1720" spans="1:1" x14ac:dyDescent="0.25">
@@ -9011,7 +9011,7 @@
     </row>
     <row r="1721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1721">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1722" spans="1:1" x14ac:dyDescent="0.25">
@@ -9031,7 +9031,7 @@
     </row>
     <row r="1725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1725">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1726" spans="1:1" x14ac:dyDescent="0.25">
@@ -9046,7 +9046,7 @@
     </row>
     <row r="1728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1728">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1729" spans="1:1" x14ac:dyDescent="0.25">
@@ -9056,7 +9056,7 @@
     </row>
     <row r="1730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1730">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1731" spans="1:1" x14ac:dyDescent="0.25">
@@ -9066,7 +9066,7 @@
     </row>
     <row r="1732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1732">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1733" spans="1:1" x14ac:dyDescent="0.25">
@@ -9081,7 +9081,7 @@
     </row>
     <row r="1735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1735">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1736" spans="1:1" x14ac:dyDescent="0.25">
@@ -9091,12 +9091,12 @@
     </row>
     <row r="1737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1737">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1738">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1739" spans="1:1" x14ac:dyDescent="0.25">
@@ -9106,7 +9106,7 @@
     </row>
     <row r="1740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1740">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1741" spans="1:1" x14ac:dyDescent="0.25">
@@ -9136,12 +9136,12 @@
     </row>
     <row r="1746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1746">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1747">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1748" spans="1:1" x14ac:dyDescent="0.25">
@@ -9156,7 +9156,7 @@
     </row>
     <row r="1750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1750">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1751" spans="1:1" x14ac:dyDescent="0.25">
@@ -9166,22 +9166,22 @@
     </row>
     <row r="1752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1752">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1753">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1754">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1755">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1756" spans="1:1" x14ac:dyDescent="0.25">
@@ -9191,7 +9191,7 @@
     </row>
     <row r="1757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1757">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1758" spans="1:1" x14ac:dyDescent="0.25">
@@ -9201,7 +9201,7 @@
     </row>
     <row r="1759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1759">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1760" spans="1:1" x14ac:dyDescent="0.25">
@@ -9221,37 +9221,37 @@
     </row>
     <row r="1763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1763">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1764">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1765">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1766">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1767">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1768">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1769">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1770" spans="1:1" x14ac:dyDescent="0.25">
@@ -9286,22 +9286,22 @@
     </row>
     <row r="1776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1776">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1777">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1778">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1779">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1780" spans="1:1" x14ac:dyDescent="0.25">
@@ -9311,17 +9311,17 @@
     </row>
     <row r="1781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1781">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1782">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1783">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1784" spans="1:1" x14ac:dyDescent="0.25">
@@ -9336,7 +9336,7 @@
     </row>
     <row r="1786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1786">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1787" spans="1:1" x14ac:dyDescent="0.25">
@@ -9346,27 +9346,27 @@
     </row>
     <row r="1788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1788">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1789">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1790">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1791">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1792">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1793" spans="1:1" x14ac:dyDescent="0.25">
@@ -9376,7 +9376,7 @@
     </row>
     <row r="1794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1794">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1795" spans="1:1" x14ac:dyDescent="0.25">
@@ -9386,17 +9386,17 @@
     </row>
     <row r="1796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1796">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1797">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1798">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1799" spans="1:1" x14ac:dyDescent="0.25">
@@ -9406,27 +9406,27 @@
     </row>
     <row r="1800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1800">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1801">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1802" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1802">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1803" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1803">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1804" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1804">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1805" spans="1:1" x14ac:dyDescent="0.25">
@@ -9436,17 +9436,17 @@
     </row>
     <row r="1806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1806">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1807">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1808" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1808">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1809" spans="1:1" x14ac:dyDescent="0.25">
@@ -9456,12 +9456,12 @@
     </row>
     <row r="1810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1810">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1811">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1812" spans="1:1" x14ac:dyDescent="0.25">
@@ -9471,7 +9471,7 @@
     </row>
     <row r="1813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1813">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1814" spans="1:1" x14ac:dyDescent="0.25">
@@ -9481,12 +9481,12 @@
     </row>
     <row r="1815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1815">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1816">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1817" spans="1:1" x14ac:dyDescent="0.25">
@@ -9496,7 +9496,7 @@
     </row>
     <row r="1818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1818">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1819" spans="1:1" x14ac:dyDescent="0.25">
@@ -9511,7 +9511,7 @@
     </row>
     <row r="1821" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1821">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1822" spans="1:1" x14ac:dyDescent="0.25">
@@ -9531,42 +9531,42 @@
     </row>
     <row r="1825" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1825">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1826" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1826">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1827">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1828">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1829">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1830">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1831">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1832" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1832">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1833" spans="1:1" x14ac:dyDescent="0.25">
@@ -9576,17 +9576,17 @@
     </row>
     <row r="1834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1834">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1835">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1836">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1837" spans="1:1" x14ac:dyDescent="0.25">
@@ -9596,17 +9596,17 @@
     </row>
     <row r="1838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1838">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1839">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1840">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1841" spans="1:1" x14ac:dyDescent="0.25">
@@ -9616,22 +9616,22 @@
     </row>
     <row r="1842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1842">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1843">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1844">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1845">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1846" spans="1:1" x14ac:dyDescent="0.25">
@@ -9641,27 +9641,27 @@
     </row>
     <row r="1847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1847">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1848">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1849">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1850">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1851">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1852" spans="1:1" x14ac:dyDescent="0.25">
@@ -9671,7 +9671,7 @@
     </row>
     <row r="1853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1853">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1854" spans="1:1" x14ac:dyDescent="0.25">
@@ -9686,22 +9686,22 @@
     </row>
     <row r="1856" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1856">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1857">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1858" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1858">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1859">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1860" spans="1:1" x14ac:dyDescent="0.25">
@@ -9716,12 +9716,12 @@
     </row>
     <row r="1862" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1862">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1863" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1863">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1864" spans="1:1" x14ac:dyDescent="0.25">
@@ -9736,12 +9736,12 @@
     </row>
     <row r="1866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1866">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1867">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1868" spans="1:1" x14ac:dyDescent="0.25">
@@ -9751,22 +9751,22 @@
     </row>
     <row r="1869" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1869">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1870">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1871">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1872">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1873" spans="1:1" x14ac:dyDescent="0.25">
@@ -9776,7 +9776,7 @@
     </row>
     <row r="1874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1874">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1875" spans="1:1" x14ac:dyDescent="0.25">
@@ -9791,7 +9791,7 @@
     </row>
     <row r="1877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1877">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1878" spans="1:1" x14ac:dyDescent="0.25">
@@ -9811,17 +9811,17 @@
     </row>
     <row r="1881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1881">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1882">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1883">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1884" spans="1:1" x14ac:dyDescent="0.25">
@@ -9836,12 +9836,12 @@
     </row>
     <row r="1886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1886">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1887">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1888" spans="1:1" x14ac:dyDescent="0.25">
@@ -9851,7 +9851,7 @@
     </row>
     <row r="1889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1889">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1890" spans="1:1" x14ac:dyDescent="0.25">
@@ -9861,7 +9861,7 @@
     </row>
     <row r="1891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1891">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1892" spans="1:1" x14ac:dyDescent="0.25">
@@ -9876,17 +9876,17 @@
     </row>
     <row r="1894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1894">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1895">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1896">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1897" spans="1:1" x14ac:dyDescent="0.25">
@@ -9906,12 +9906,12 @@
     </row>
     <row r="1900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1900">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1901">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1902" spans="1:1" x14ac:dyDescent="0.25">
@@ -9941,7 +9941,7 @@
     </row>
     <row r="1907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1907">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1908" spans="1:1" x14ac:dyDescent="0.25">
@@ -9956,7 +9956,7 @@
     </row>
     <row r="1910" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1910">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1911" spans="1:1" x14ac:dyDescent="0.25">
@@ -10011,12 +10011,12 @@
     </row>
     <row r="1921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1921">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1922">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1923" spans="1:1" x14ac:dyDescent="0.25">
@@ -10031,7 +10031,7 @@
     </row>
     <row r="1925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1925">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1926" spans="1:1" x14ac:dyDescent="0.25">
@@ -10046,12 +10046,12 @@
     </row>
     <row r="1928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1928">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1929">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1930" spans="1:1" x14ac:dyDescent="0.25">
@@ -10091,7 +10091,7 @@
     </row>
     <row r="1937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1937">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1938" spans="1:1" x14ac:dyDescent="0.25">
@@ -10101,7 +10101,7 @@
     </row>
     <row r="1939" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1939">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1940" spans="1:1" x14ac:dyDescent="0.25">
@@ -10121,7 +10121,7 @@
     </row>
     <row r="1943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1943">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1944" spans="1:1" x14ac:dyDescent="0.25">
@@ -10136,12 +10136,12 @@
     </row>
     <row r="1946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1946">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1947">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1948" spans="1:1" x14ac:dyDescent="0.25">
@@ -10156,12 +10156,12 @@
     </row>
     <row r="1950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1950">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1951">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1952" spans="1:1" x14ac:dyDescent="0.25">
@@ -10181,7 +10181,7 @@
     </row>
     <row r="1955" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1955">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1956" spans="1:1" x14ac:dyDescent="0.25">
@@ -10191,7 +10191,7 @@
     </row>
     <row r="1957" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1957">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1958" spans="1:1" x14ac:dyDescent="0.25">
@@ -10231,7 +10231,7 @@
     </row>
     <row r="1965" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1965">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1966" spans="1:1" x14ac:dyDescent="0.25">
@@ -10246,7 +10246,7 @@
     </row>
     <row r="1968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1968">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1969" spans="1:1" x14ac:dyDescent="0.25">
@@ -10261,7 +10261,7 @@
     </row>
     <row r="1971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1971">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1972" spans="1:1" x14ac:dyDescent="0.25">
@@ -10296,7 +10296,7 @@
     </row>
     <row r="1978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1978">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1979" spans="1:1" x14ac:dyDescent="0.25">
@@ -10321,7 +10321,7 @@
     </row>
     <row r="1983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1983">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1984" spans="1:1" x14ac:dyDescent="0.25">
@@ -10341,7 +10341,7 @@
     </row>
     <row r="1987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1987">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1988" spans="1:1" x14ac:dyDescent="0.25">
@@ -10351,17 +10351,17 @@
     </row>
     <row r="1989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1989">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1990" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1990">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1991" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1991">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1992" spans="1:1" x14ac:dyDescent="0.25">
@@ -10371,22 +10371,22 @@
     </row>
     <row r="1993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1993">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1994">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1995">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1996" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1996">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1997" spans="1:1" x14ac:dyDescent="0.25">
@@ -10401,7 +10401,7 @@
     </row>
     <row r="1999" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1999">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2000" spans="1:1" x14ac:dyDescent="0.25">

--- a/TestMNIST/MatlabCodes/test_label.xlsx
+++ b/TestMNIST/MatlabCodes/test_label.xlsx
@@ -411,7 +411,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -426,22 +426,22 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -456,12 +456,12 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -471,7 +471,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -486,12 +486,12 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -511,7 +511,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -531,22 +531,22 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
@@ -566,7 +566,7 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -576,12 +576,12 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -591,7 +591,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
@@ -616,7 +616,7 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
@@ -646,7 +646,7 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
@@ -656,17 +656,17 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
@@ -676,32 +676,32 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
@@ -711,7 +711,7 @@
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
@@ -721,7 +721,7 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
@@ -736,12 +736,12 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
@@ -756,7 +756,7 @@
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
@@ -766,7 +766,7 @@
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
@@ -776,27 +776,27 @@
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
@@ -806,12 +806,12 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
@@ -821,12 +821,12 @@
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
@@ -846,12 +846,12 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
@@ -861,12 +861,12 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
@@ -876,12 +876,12 @@
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
@@ -896,12 +896,12 @@
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
@@ -911,17 +911,17 @@
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
@@ -931,7 +931,7 @@
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
@@ -946,7 +946,7 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
@@ -956,12 +956,12 @@
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
@@ -976,17 +976,17 @@
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
@@ -1001,7 +1001,7 @@
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
@@ -1026,7 +1026,7 @@
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
@@ -1056,7 +1056,7 @@
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
@@ -1066,7 +1066,7 @@
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
@@ -1086,32 +1086,32 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
@@ -1131,7 +1131,7 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
@@ -1141,7 +1141,7 @@
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
@@ -1151,7 +1151,7 @@
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
@@ -1161,7 +1161,7 @@
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
@@ -1186,17 +1186,17 @@
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
@@ -1206,12 +1206,12 @@
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
@@ -1236,12 +1236,12 @@
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
@@ -1251,7 +1251,7 @@
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
@@ -1261,7 +1261,7 @@
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
@@ -1271,12 +1271,12 @@
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
@@ -1296,7 +1296,7 @@
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
@@ -1306,42 +1306,42 @@
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
@@ -1351,7 +1351,7 @@
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
@@ -1371,17 +1371,17 @@
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
@@ -1411,17 +1411,17 @@
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
@@ -1436,12 +1436,12 @@
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
@@ -1451,7 +1451,7 @@
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
@@ -1466,7 +1466,7 @@
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
@@ -1481,7 +1481,7 @@
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
@@ -1501,12 +1501,12 @@
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
@@ -1521,7 +1521,7 @@
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
@@ -1531,17 +1531,17 @@
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
@@ -1551,12 +1551,12 @@
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
@@ -1571,7 +1571,7 @@
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
@@ -1651,7 +1651,7 @@
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
@@ -1661,7 +1661,7 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
@@ -1676,7 +1676,7 @@
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
@@ -1686,12 +1686,12 @@
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
@@ -1706,7 +1706,7 @@
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
@@ -1726,7 +1726,7 @@
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
@@ -1736,12 +1736,12 @@
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
@@ -1751,7 +1751,7 @@
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
@@ -1766,7 +1766,7 @@
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
@@ -1781,27 +1781,27 @@
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
@@ -1836,22 +1836,22 @@
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
@@ -1886,7 +1886,7 @@
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
@@ -1896,7 +1896,7 @@
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
@@ -1906,7 +1906,7 @@
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
@@ -1921,7 +1921,7 @@
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
@@ -1941,27 +1941,27 @@
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
@@ -1971,7 +1971,7 @@
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
@@ -1981,7 +1981,7 @@
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
@@ -1991,7 +1991,7 @@
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
@@ -2006,22 +2006,22 @@
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
@@ -2036,7 +2036,7 @@
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
@@ -2051,7 +2051,7 @@
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
@@ -2066,17 +2066,17 @@
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
@@ -2091,12 +2091,12 @@
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
@@ -2121,12 +2121,12 @@
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
@@ -2136,12 +2136,12 @@
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
@@ -2156,12 +2156,12 @@
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
@@ -2176,7 +2176,7 @@
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
@@ -2191,12 +2191,12 @@
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
@@ -2216,7 +2216,7 @@
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
@@ -2236,12 +2236,12 @@
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
@@ -2251,27 +2251,27 @@
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
@@ -2286,12 +2286,12 @@
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
@@ -2331,17 +2331,17 @@
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
@@ -2351,7 +2351,7 @@
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
@@ -2366,12 +2366,12 @@
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
@@ -2396,7 +2396,7 @@
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
@@ -2406,7 +2406,7 @@
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
@@ -2421,12 +2421,12 @@
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
@@ -2436,37 +2436,37 @@
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
@@ -2476,17 +2476,17 @@
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
@@ -2501,7 +2501,7 @@
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
@@ -2516,22 +2516,22 @@
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
@@ -2546,42 +2546,42 @@
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
@@ -2601,12 +2601,12 @@
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
@@ -2621,7 +2621,7 @@
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
@@ -2631,32 +2631,32 @@
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
@@ -2666,7 +2666,7 @@
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
@@ -2676,7 +2676,7 @@
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
@@ -2691,7 +2691,7 @@
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
@@ -2701,12 +2701,12 @@
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
@@ -2721,12 +2721,12 @@
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
@@ -2741,17 +2741,17 @@
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
@@ -2766,7 +2766,7 @@
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
@@ -2786,12 +2786,12 @@
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
@@ -2806,7 +2806,7 @@
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
@@ -2821,12 +2821,12 @@
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
@@ -2836,7 +2836,7 @@
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
@@ -2856,7 +2856,7 @@
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
@@ -2866,7 +2866,7 @@
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
@@ -2881,7 +2881,7 @@
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
@@ -2906,7 +2906,7 @@
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
@@ -2916,17 +2916,17 @@
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
@@ -2936,7 +2936,7 @@
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
@@ -2946,7 +2946,7 @@
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
@@ -2961,7 +2961,7 @@
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
@@ -2971,12 +2971,12 @@
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
@@ -2991,12 +2991,12 @@
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
@@ -3006,12 +3006,12 @@
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
@@ -3021,32 +3021,32 @@
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
@@ -3061,7 +3061,7 @@
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
@@ -3071,17 +3071,17 @@
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
@@ -3091,7 +3091,7 @@
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
@@ -3106,7 +3106,7 @@
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
@@ -3126,7 +3126,7 @@
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
@@ -3141,7 +3141,7 @@
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
@@ -3156,17 +3156,17 @@
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
@@ -3186,7 +3186,7 @@
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
@@ -3221,12 +3221,12 @@
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
@@ -3256,7 +3256,7 @@
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
@@ -3266,17 +3266,17 @@
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
@@ -3291,7 +3291,7 @@
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
@@ -3321,22 +3321,22 @@
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
@@ -3346,7 +3346,7 @@
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
@@ -3356,7 +3356,7 @@
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
@@ -3366,12 +3366,12 @@
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
@@ -3421,37 +3421,37 @@
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
@@ -3461,17 +3461,17 @@
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
@@ -3486,12 +3486,12 @@
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
@@ -3501,17 +3501,17 @@
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
@@ -3526,12 +3526,12 @@
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
@@ -3581,22 +3581,22 @@
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
@@ -3606,7 +3606,7 @@
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
@@ -3616,12 +3616,12 @@
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
@@ -3641,7 +3641,7 @@
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
@@ -3666,7 +3666,7 @@
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
@@ -3696,17 +3696,17 @@
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
@@ -3716,7 +3716,7 @@
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
@@ -3736,7 +3736,7 @@
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
@@ -3746,22 +3746,22 @@
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
@@ -3776,7 +3776,7 @@
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
@@ -3801,7 +3801,7 @@
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
@@ -3811,7 +3811,7 @@
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
@@ -3831,22 +3831,22 @@
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
@@ -3856,7 +3856,7 @@
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
@@ -3866,12 +3866,12 @@
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
@@ -3921,12 +3921,12 @@
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
@@ -3936,17 +3936,17 @@
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
@@ -3956,12 +3956,12 @@
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
@@ -3981,7 +3981,7 @@
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
@@ -4001,7 +4001,7 @@
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
@@ -4036,7 +4036,7 @@
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
@@ -4046,7 +4046,7 @@
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
@@ -4061,7 +4061,7 @@
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
@@ -4071,7 +4071,7 @@
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
@@ -4081,7 +4081,7 @@
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
@@ -4091,17 +4091,17 @@
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
@@ -4111,7 +4111,7 @@
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A741">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
@@ -4121,7 +4121,7 @@
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
@@ -4131,7 +4131,7 @@
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A745">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
@@ -4141,7 +4141,7 @@
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A747">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
@@ -4166,7 +4166,7 @@
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A752">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
@@ -4186,12 +4186,12 @@
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
@@ -4206,22 +4206,22 @@
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
@@ -4231,12 +4231,12 @@
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
@@ -4261,12 +4261,12 @@
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
@@ -4276,17 +4276,17 @@
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
@@ -4306,27 +4306,27 @@
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
@@ -4341,7 +4341,7 @@
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A787">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
@@ -4351,7 +4351,7 @@
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A789">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
@@ -4361,22 +4361,22 @@
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A791">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A792">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
@@ -4411,7 +4411,7 @@
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A801">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.25">
@@ -4431,7 +4431,7 @@
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A805">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
@@ -4441,7 +4441,7 @@
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A807">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.25">
@@ -4451,17 +4451,17 @@
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A809">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A810">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A811">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
@@ -4471,12 +4471,12 @@
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A813">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A814">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
@@ -4486,7 +4486,7 @@
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A816">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
@@ -4496,7 +4496,7 @@
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A818">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
@@ -4506,7 +4506,7 @@
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A820">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
@@ -4531,7 +4531,7 @@
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A825">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
@@ -4541,7 +4541,7 @@
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A827">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
@@ -4556,7 +4556,7 @@
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A830">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
@@ -4566,7 +4566,7 @@
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A832">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
@@ -4576,7 +4576,7 @@
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A834">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
@@ -4591,32 +4591,32 @@
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A837">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A838">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A839">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A840">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A841">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A842">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
@@ -4636,7 +4636,7 @@
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A846">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
@@ -4651,7 +4651,7 @@
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A849">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
@@ -4661,22 +4661,22 @@
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A851">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A852">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A853">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A854">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
@@ -4701,17 +4701,17 @@
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A859">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A860">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A861">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
@@ -4726,17 +4726,17 @@
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A864">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A865">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A866">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
@@ -4761,7 +4761,7 @@
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A871">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
@@ -4776,12 +4776,12 @@
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A874">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A875">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
@@ -4791,7 +4791,7 @@
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A877">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
@@ -4811,17 +4811,17 @@
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A881">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A882">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A883">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
@@ -4846,7 +4846,7 @@
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A888">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
@@ -4881,17 +4881,17 @@
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A895">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A896">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A897">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
@@ -4901,7 +4901,7 @@
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A899">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
@@ -4916,17 +4916,17 @@
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A902">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A903">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A904">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
@@ -4936,22 +4936,22 @@
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A906">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A907">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A908">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A909">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
@@ -4961,12 +4961,12 @@
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A911">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A912">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
@@ -4981,7 +4981,7 @@
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A915">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
@@ -4991,12 +4991,12 @@
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A917">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A918">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
@@ -5006,7 +5006,7 @@
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A920">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
@@ -5016,12 +5016,12 @@
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A922">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
@@ -5046,7 +5046,7 @@
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A928">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
@@ -5056,7 +5056,7 @@
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A930">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
@@ -5066,7 +5066,7 @@
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A932">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
@@ -5076,7 +5076,7 @@
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A934">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.25">
@@ -5091,22 +5091,22 @@
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A937">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A938">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A939">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A940">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
@@ -5121,7 +5121,7 @@
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A943">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
@@ -5131,12 +5131,12 @@
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A945">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A946">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.25">
@@ -5151,17 +5151,17 @@
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A949">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A950">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A951">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.25">
@@ -5176,7 +5176,7 @@
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A954">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.25">
@@ -5206,7 +5206,7 @@
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A960">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.25">
@@ -5221,12 +5221,12 @@
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A963">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A964">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.25">
@@ -5236,7 +5236,7 @@
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A966">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.25">
@@ -5251,12 +5251,12 @@
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A969">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A970">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.25">
@@ -5271,12 +5271,12 @@
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A973">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A974">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.25">
@@ -5296,7 +5296,7 @@
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A978">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.25">
@@ -5321,7 +5321,7 @@
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A983">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.25">
@@ -5331,7 +5331,7 @@
     </row>
     <row r="985" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A985">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.25">
@@ -5346,7 +5346,7 @@
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A988">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.25">
@@ -5381,22 +5381,22 @@
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A995">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A996">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A997">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A998">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.25">
@@ -5406,7 +5406,7 @@
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1000">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
@@ -5421,12 +5421,12 @@
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1003">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1004">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
@@ -5441,7 +5441,7 @@
     </row>
     <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1007">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
@@ -5456,12 +5456,12 @@
     </row>
     <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1010">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1011">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
@@ -5481,12 +5481,12 @@
     </row>
     <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1015">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1016">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
@@ -5496,7 +5496,7 @@
     </row>
     <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1018">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
@@ -5521,7 +5521,7 @@
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1023">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
@@ -5531,17 +5531,17 @@
     </row>
     <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1025">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1026">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1027">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
@@ -5551,12 +5551,12 @@
     </row>
     <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1029">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1030">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
@@ -5566,27 +5566,27 @@
     </row>
     <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1032">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1033">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1034">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1035">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1036">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
@@ -5596,7 +5596,7 @@
     </row>
     <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1038">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
@@ -5606,7 +5606,7 @@
     </row>
     <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1040">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
@@ -5621,12 +5621,12 @@
     </row>
     <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1043">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1044">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
@@ -5641,12 +5641,12 @@
     </row>
     <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1047">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1048">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
@@ -5656,7 +5656,7 @@
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1050">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
@@ -5666,7 +5666,7 @@
     </row>
     <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1052">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
@@ -5681,22 +5681,22 @@
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1055">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1056">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1057">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1058">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
@@ -5716,7 +5716,7 @@
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1062">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
@@ -5741,7 +5741,7 @@
     </row>
     <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1067">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
@@ -5751,7 +5751,7 @@
     </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1069">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
@@ -5766,27 +5766,27 @@
     </row>
     <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1072">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1073">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1074">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1075">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1076">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
@@ -5796,12 +5796,12 @@
     </row>
     <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1078">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1079">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
@@ -5811,17 +5811,17 @@
     </row>
     <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1081">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1082">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1083">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
@@ -5836,12 +5836,12 @@
     </row>
     <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1086">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1087">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
@@ -5851,7 +5851,7 @@
     </row>
     <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1089">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
@@ -5861,47 +5861,47 @@
     </row>
     <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1091">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1092">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1093">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1094">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1095">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1096">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1097">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1098">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1099">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
@@ -5911,12 +5911,12 @@
     </row>
     <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1101">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1102">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
@@ -5926,17 +5926,17 @@
     </row>
     <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1104">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1105">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1106">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
@@ -5961,12 +5961,12 @@
     </row>
     <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1111">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1112">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
@@ -5986,7 +5986,7 @@
     </row>
     <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1116">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
@@ -6001,7 +6001,7 @@
     </row>
     <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1119">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1120" spans="1:1" x14ac:dyDescent="0.25">
@@ -6041,12 +6041,12 @@
     </row>
     <row r="1127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1127">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1128">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
@@ -6066,12 +6066,12 @@
     </row>
     <row r="1132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1132">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1133">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1134" spans="1:1" x14ac:dyDescent="0.25">
@@ -6086,7 +6086,7 @@
     </row>
     <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1136">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
@@ -6096,7 +6096,7 @@
     </row>
     <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1138">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
@@ -6116,12 +6116,12 @@
     </row>
     <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1142">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1143">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
@@ -6131,7 +6131,7 @@
     </row>
     <row r="1145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1145">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
@@ -6146,7 +6146,7 @@
     </row>
     <row r="1148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1148">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1149" spans="1:1" x14ac:dyDescent="0.25">
@@ -6156,7 +6156,7 @@
     </row>
     <row r="1150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1150">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1151" spans="1:1" x14ac:dyDescent="0.25">
@@ -6166,22 +6166,22 @@
     </row>
     <row r="1152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1152">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1153">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1154">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1155">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1156" spans="1:1" x14ac:dyDescent="0.25">
@@ -6196,12 +6196,12 @@
     </row>
     <row r="1158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1158">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1159">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1160" spans="1:1" x14ac:dyDescent="0.25">
@@ -6211,32 +6211,32 @@
     </row>
     <row r="1161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1161">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1162">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1163">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1164">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1165">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1166">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
@@ -6261,7 +6261,7 @@
     </row>
     <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1171">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1172" spans="1:1" x14ac:dyDescent="0.25">
@@ -6286,7 +6286,7 @@
     </row>
     <row r="1176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1176">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1177" spans="1:1" x14ac:dyDescent="0.25">
@@ -6311,12 +6311,12 @@
     </row>
     <row r="1181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1181">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1182">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1183" spans="1:1" x14ac:dyDescent="0.25">
@@ -6326,12 +6326,12 @@
     </row>
     <row r="1184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1184">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1185">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1186" spans="1:1" x14ac:dyDescent="0.25">
@@ -6346,7 +6346,7 @@
     </row>
     <row r="1188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1188">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1189" spans="1:1" x14ac:dyDescent="0.25">
@@ -6356,7 +6356,7 @@
     </row>
     <row r="1190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1190">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1191" spans="1:1" x14ac:dyDescent="0.25">
@@ -6376,7 +6376,7 @@
     </row>
     <row r="1194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1194">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1195" spans="1:1" x14ac:dyDescent="0.25">
@@ -6386,22 +6386,22 @@
     </row>
     <row r="1196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1196">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1197">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1198">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1199">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1200" spans="1:1" x14ac:dyDescent="0.25">
@@ -6411,12 +6411,12 @@
     </row>
     <row r="1201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1201">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1202">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1203" spans="1:1" x14ac:dyDescent="0.25">
@@ -6431,7 +6431,7 @@
     </row>
     <row r="1205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1205">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1206" spans="1:1" x14ac:dyDescent="0.25">
@@ -6441,12 +6441,12 @@
     </row>
     <row r="1207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1207">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1208">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1209" spans="1:1" x14ac:dyDescent="0.25">
@@ -6461,12 +6461,12 @@
     </row>
     <row r="1211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1211">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1212">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1213" spans="1:1" x14ac:dyDescent="0.25">
@@ -6476,7 +6476,7 @@
     </row>
     <row r="1214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1214">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1215" spans="1:1" x14ac:dyDescent="0.25">
@@ -6491,12 +6491,12 @@
     </row>
     <row r="1217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1217">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1218">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1219" spans="1:1" x14ac:dyDescent="0.25">
@@ -6506,7 +6506,7 @@
     </row>
     <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1220">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1221" spans="1:1" x14ac:dyDescent="0.25">
@@ -6516,12 +6516,12 @@
     </row>
     <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1222">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1223">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1224" spans="1:1" x14ac:dyDescent="0.25">
@@ -6531,17 +6531,17 @@
     </row>
     <row r="1225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1225">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1226">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1227">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1228" spans="1:1" x14ac:dyDescent="0.25">
@@ -6551,12 +6551,12 @@
     </row>
     <row r="1229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1229">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1230">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1231" spans="1:1" x14ac:dyDescent="0.25">
@@ -6566,7 +6566,7 @@
     </row>
     <row r="1232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1232">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1233" spans="1:1" x14ac:dyDescent="0.25">
@@ -6581,12 +6581,12 @@
     </row>
     <row r="1235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1235">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1236">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1237" spans="1:1" x14ac:dyDescent="0.25">
@@ -6606,32 +6606,32 @@
     </row>
     <row r="1240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1240">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1241">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1242">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1243">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1244">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1245">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1246" spans="1:1" x14ac:dyDescent="0.25">
@@ -6671,17 +6671,17 @@
     </row>
     <row r="1253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1253">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1254">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1255">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1256" spans="1:1" x14ac:dyDescent="0.25">
@@ -6691,12 +6691,12 @@
     </row>
     <row r="1257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1257">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1258">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1259" spans="1:1" x14ac:dyDescent="0.25">
@@ -6711,12 +6711,12 @@
     </row>
     <row r="1261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1261">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1262">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1263" spans="1:1" x14ac:dyDescent="0.25">
@@ -6726,17 +6726,17 @@
     </row>
     <row r="1264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1264">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1265">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1266">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1267" spans="1:1" x14ac:dyDescent="0.25">
@@ -6746,7 +6746,7 @@
     </row>
     <row r="1268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1268">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1269" spans="1:1" x14ac:dyDescent="0.25">
@@ -6776,7 +6776,7 @@
     </row>
     <row r="1274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1274">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1275" spans="1:1" x14ac:dyDescent="0.25">
@@ -6791,17 +6791,17 @@
     </row>
     <row r="1277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1277">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1278">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1279">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1280" spans="1:1" x14ac:dyDescent="0.25">
@@ -6811,22 +6811,22 @@
     </row>
     <row r="1281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1281">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1282">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1283">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1284">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1285" spans="1:1" x14ac:dyDescent="0.25">
@@ -6841,12 +6841,12 @@
     </row>
     <row r="1287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1287">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1288">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1289" spans="1:1" x14ac:dyDescent="0.25">
@@ -6856,12 +6856,12 @@
     </row>
     <row r="1290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1290">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1291">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1292" spans="1:1" x14ac:dyDescent="0.25">
@@ -6881,12 +6881,12 @@
     </row>
     <row r="1295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1295">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1296">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1297" spans="1:1" x14ac:dyDescent="0.25">
@@ -6926,12 +6926,12 @@
     </row>
     <row r="1304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1304">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1305">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1306" spans="1:1" x14ac:dyDescent="0.25">
@@ -6976,12 +6976,12 @@
     </row>
     <row r="1314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1314">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1315">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1316" spans="1:1" x14ac:dyDescent="0.25">
@@ -6991,47 +6991,47 @@
     </row>
     <row r="1317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1317">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1318">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1319">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1320">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1321">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1322">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1323">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1324">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1325">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1326" spans="1:1" x14ac:dyDescent="0.25">
@@ -7041,7 +7041,7 @@
     </row>
     <row r="1327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1327">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1328" spans="1:1" x14ac:dyDescent="0.25">
@@ -7051,7 +7051,7 @@
     </row>
     <row r="1329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1329">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1330" spans="1:1" x14ac:dyDescent="0.25">
@@ -7061,17 +7061,17 @@
     </row>
     <row r="1331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1331">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1332">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1333">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1334" spans="1:1" x14ac:dyDescent="0.25">
@@ -7086,7 +7086,7 @@
     </row>
     <row r="1336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1336">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1337" spans="1:1" x14ac:dyDescent="0.25">
@@ -7096,17 +7096,17 @@
     </row>
     <row r="1338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1338">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1339">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1340">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1341" spans="1:1" x14ac:dyDescent="0.25">
@@ -7121,17 +7121,17 @@
     </row>
     <row r="1343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1343">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1344">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1345">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1346" spans="1:1" x14ac:dyDescent="0.25">
@@ -7141,7 +7141,7 @@
     </row>
     <row r="1347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1347">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1348" spans="1:1" x14ac:dyDescent="0.25">
@@ -7151,7 +7151,7 @@
     </row>
     <row r="1349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1349">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1350" spans="1:1" x14ac:dyDescent="0.25">
@@ -7161,7 +7161,7 @@
     </row>
     <row r="1351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1351">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1352" spans="1:1" x14ac:dyDescent="0.25">
@@ -7176,7 +7176,7 @@
     </row>
     <row r="1354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1354">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1355" spans="1:1" x14ac:dyDescent="0.25">
@@ -7201,12 +7201,12 @@
     </row>
     <row r="1359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1359">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1360">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1361" spans="1:1" x14ac:dyDescent="0.25">
@@ -7221,7 +7221,7 @@
     </row>
     <row r="1363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1363">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1364" spans="1:1" x14ac:dyDescent="0.25">
@@ -7241,7 +7241,7 @@
     </row>
     <row r="1367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1367">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1368" spans="1:1" x14ac:dyDescent="0.25">
@@ -7276,7 +7276,7 @@
     </row>
     <row r="1374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1374">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1375" spans="1:1" x14ac:dyDescent="0.25">
@@ -7291,32 +7291,32 @@
     </row>
     <row r="1377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1377">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1378">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1379">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1380">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1381">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1382">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1383" spans="1:1" x14ac:dyDescent="0.25">
@@ -7326,12 +7326,12 @@
     </row>
     <row r="1384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1384">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1385">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1386" spans="1:1" x14ac:dyDescent="0.25">
@@ -7351,7 +7351,7 @@
     </row>
     <row r="1389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1389">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1390" spans="1:1" x14ac:dyDescent="0.25">
@@ -7361,7 +7361,7 @@
     </row>
     <row r="1391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1391">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1392" spans="1:1" x14ac:dyDescent="0.25">
@@ -7371,7 +7371,7 @@
     </row>
     <row r="1393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1393">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1394" spans="1:1" x14ac:dyDescent="0.25">
@@ -7381,7 +7381,7 @@
     </row>
     <row r="1395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1395">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1396" spans="1:1" x14ac:dyDescent="0.25">
@@ -7391,7 +7391,7 @@
     </row>
     <row r="1397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1397">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1398" spans="1:1" x14ac:dyDescent="0.25">
@@ -7411,7 +7411,7 @@
     </row>
     <row r="1401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1401">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1402" spans="1:1" x14ac:dyDescent="0.25">
@@ -7426,7 +7426,7 @@
     </row>
     <row r="1404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1404">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1405" spans="1:1" x14ac:dyDescent="0.25">
@@ -7436,7 +7436,7 @@
     </row>
     <row r="1406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1406">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1407" spans="1:1" x14ac:dyDescent="0.25">
@@ -7446,7 +7446,7 @@
     </row>
     <row r="1408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1408">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1409" spans="1:1" x14ac:dyDescent="0.25">
@@ -7456,12 +7456,12 @@
     </row>
     <row r="1410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1410">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1411">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1412" spans="1:1" x14ac:dyDescent="0.25">
@@ -7476,7 +7476,7 @@
     </row>
     <row r="1414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1414">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1415" spans="1:1" x14ac:dyDescent="0.25">
@@ -7486,12 +7486,12 @@
     </row>
     <row r="1416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1416">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1417">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1418" spans="1:1" x14ac:dyDescent="0.25">
@@ -7506,12 +7506,12 @@
     </row>
     <row r="1420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1420">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1421">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1422" spans="1:1" x14ac:dyDescent="0.25">
@@ -7521,12 +7521,12 @@
     </row>
     <row r="1423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1423">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1424">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1425" spans="1:1" x14ac:dyDescent="0.25">
@@ -7541,7 +7541,7 @@
     </row>
     <row r="1427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1427">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1428" spans="1:1" x14ac:dyDescent="0.25">
@@ -7551,12 +7551,12 @@
     </row>
     <row r="1429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1429">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1430">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1431" spans="1:1" x14ac:dyDescent="0.25">
@@ -7566,12 +7566,12 @@
     </row>
     <row r="1432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1432">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1433">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1434" spans="1:1" x14ac:dyDescent="0.25">
@@ -7581,17 +7581,17 @@
     </row>
     <row r="1435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1435">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1436">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1437">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1438" spans="1:1" x14ac:dyDescent="0.25">
@@ -7611,17 +7611,17 @@
     </row>
     <row r="1441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1441">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1442">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1443">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1444" spans="1:1" x14ac:dyDescent="0.25">
@@ -7636,7 +7636,7 @@
     </row>
     <row r="1446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1446">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1447" spans="1:1" x14ac:dyDescent="0.25">
@@ -7651,7 +7651,7 @@
     </row>
     <row r="1449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1449">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1450" spans="1:1" x14ac:dyDescent="0.25">
@@ -7661,7 +7661,7 @@
     </row>
     <row r="1451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1451">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1452" spans="1:1" x14ac:dyDescent="0.25">
@@ -7671,7 +7671,7 @@
     </row>
     <row r="1453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1453">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1454" spans="1:1" x14ac:dyDescent="0.25">
@@ -7681,12 +7681,12 @@
     </row>
     <row r="1455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1455">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1456">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1457" spans="1:1" x14ac:dyDescent="0.25">
@@ -7716,7 +7716,7 @@
     </row>
     <row r="1462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1462">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1463" spans="1:1" x14ac:dyDescent="0.25">
@@ -7731,12 +7731,12 @@
     </row>
     <row r="1465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1465">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1466">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1467" spans="1:1" x14ac:dyDescent="0.25">
@@ -7766,7 +7766,7 @@
     </row>
     <row r="1472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1472">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1473" spans="1:1" x14ac:dyDescent="0.25">
@@ -7781,12 +7781,12 @@
     </row>
     <row r="1475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1475">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1476">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1477" spans="1:1" x14ac:dyDescent="0.25">
@@ -7801,7 +7801,7 @@
     </row>
     <row r="1479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1479">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1480" spans="1:1" x14ac:dyDescent="0.25">
@@ -7816,12 +7816,12 @@
     </row>
     <row r="1482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1482">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1483">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1484" spans="1:1" x14ac:dyDescent="0.25">
@@ -7831,12 +7831,12 @@
     </row>
     <row r="1485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1485">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1486">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1487" spans="1:1" x14ac:dyDescent="0.25">
@@ -7846,7 +7846,7 @@
     </row>
     <row r="1488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1488">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1489" spans="1:1" x14ac:dyDescent="0.25">
@@ -7856,7 +7856,7 @@
     </row>
     <row r="1490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1490">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1491" spans="1:1" x14ac:dyDescent="0.25">
@@ -7871,12 +7871,12 @@
     </row>
     <row r="1493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1493">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1494">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1495" spans="1:1" x14ac:dyDescent="0.25">
@@ -7886,12 +7886,12 @@
     </row>
     <row r="1496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1496">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1497">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1498" spans="1:1" x14ac:dyDescent="0.25">
@@ -7901,12 +7901,12 @@
     </row>
     <row r="1499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1499">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1500">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1501" spans="1:1" x14ac:dyDescent="0.25">
@@ -7926,7 +7926,7 @@
     </row>
     <row r="1504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1504">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1505" spans="1:1" x14ac:dyDescent="0.25">
@@ -7936,17 +7936,17 @@
     </row>
     <row r="1506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1506">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1507">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1508">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1509" spans="1:1" x14ac:dyDescent="0.25">
@@ -7976,17 +7976,17 @@
     </row>
     <row r="1514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1514">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1515">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1516">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1517" spans="1:1" x14ac:dyDescent="0.25">
@@ -7996,22 +7996,22 @@
     </row>
     <row r="1518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1518">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1519">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1520">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1521">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1522" spans="1:1" x14ac:dyDescent="0.25">
@@ -8021,7 +8021,7 @@
     </row>
     <row r="1523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1523">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1524" spans="1:1" x14ac:dyDescent="0.25">
@@ -8031,22 +8031,22 @@
     </row>
     <row r="1525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1525">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1526">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1527">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1528">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1529" spans="1:1" x14ac:dyDescent="0.25">
@@ -8056,17 +8056,17 @@
     </row>
     <row r="1530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1530">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1531">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1532">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1533" spans="1:1" x14ac:dyDescent="0.25">
@@ -8091,17 +8091,17 @@
     </row>
     <row r="1537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1537">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1538">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1539">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1540" spans="1:1" x14ac:dyDescent="0.25">
@@ -8111,12 +8111,12 @@
     </row>
     <row r="1541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1541">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1542">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1543" spans="1:1" x14ac:dyDescent="0.25">
@@ -8126,7 +8126,7 @@
     </row>
     <row r="1544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1544">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1545" spans="1:1" x14ac:dyDescent="0.25">
@@ -8146,17 +8146,17 @@
     </row>
     <row r="1548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1548">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1549">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1550">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1551" spans="1:1" x14ac:dyDescent="0.25">
@@ -8166,17 +8166,17 @@
     </row>
     <row r="1552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1552">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1553">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1554">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1555" spans="1:1" x14ac:dyDescent="0.25">
@@ -8196,37 +8196,37 @@
     </row>
     <row r="1558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1558">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1559">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1560">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1561">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1562">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1563">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1564">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1565" spans="1:1" x14ac:dyDescent="0.25">
@@ -8236,7 +8236,7 @@
     </row>
     <row r="1566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1566">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1567" spans="1:1" x14ac:dyDescent="0.25">
@@ -8261,7 +8261,7 @@
     </row>
     <row r="1571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1571">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1572" spans="1:1" x14ac:dyDescent="0.25">
@@ -8271,12 +8271,12 @@
     </row>
     <row r="1573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1573">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1574">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1575" spans="1:1" x14ac:dyDescent="0.25">
@@ -8301,7 +8301,7 @@
     </row>
     <row r="1579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1579">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1580" spans="1:1" x14ac:dyDescent="0.25">
@@ -8311,12 +8311,12 @@
     </row>
     <row r="1581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1581">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1582">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1583" spans="1:1" x14ac:dyDescent="0.25">
@@ -8331,7 +8331,7 @@
     </row>
     <row r="1585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1585">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1586" spans="1:1" x14ac:dyDescent="0.25">
@@ -8351,22 +8351,22 @@
     </row>
     <row r="1589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1589">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1590">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1591">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1592">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1593" spans="1:1" x14ac:dyDescent="0.25">
@@ -8386,7 +8386,7 @@
     </row>
     <row r="1596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1596">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1597" spans="1:1" x14ac:dyDescent="0.25">
@@ -8396,17 +8396,17 @@
     </row>
     <row r="1598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1598">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1599">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1600">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1601" spans="1:1" x14ac:dyDescent="0.25">
@@ -8471,27 +8471,27 @@
     </row>
     <row r="1613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1613">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1614">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1615">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1616">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1617">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1618" spans="1:1" x14ac:dyDescent="0.25">
@@ -8506,7 +8506,7 @@
     </row>
     <row r="1620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1620">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1621" spans="1:1" x14ac:dyDescent="0.25">
@@ -8516,7 +8516,7 @@
     </row>
     <row r="1622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1622">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1623" spans="1:1" x14ac:dyDescent="0.25">
@@ -8526,12 +8526,12 @@
     </row>
     <row r="1624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1624">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1625">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1626" spans="1:1" x14ac:dyDescent="0.25">
@@ -8541,17 +8541,17 @@
     </row>
     <row r="1627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1627">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1628">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1629">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1630" spans="1:1" x14ac:dyDescent="0.25">
@@ -8571,7 +8571,7 @@
     </row>
     <row r="1633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1633">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1634" spans="1:1" x14ac:dyDescent="0.25">
@@ -8581,37 +8581,37 @@
     </row>
     <row r="1635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1635">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1636">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1637">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1638">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1639">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1640">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1641">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1642" spans="1:1" x14ac:dyDescent="0.25">
@@ -8621,7 +8621,7 @@
     </row>
     <row r="1643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1643">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1644" spans="1:1" x14ac:dyDescent="0.25">
@@ -8631,7 +8631,7 @@
     </row>
     <row r="1645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1645">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1646" spans="1:1" x14ac:dyDescent="0.25">
@@ -8651,7 +8651,7 @@
     </row>
     <row r="1649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1649">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1650" spans="1:1" x14ac:dyDescent="0.25">
@@ -8666,17 +8666,17 @@
     </row>
     <row r="1652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1652">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1653">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1654">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1655" spans="1:1" x14ac:dyDescent="0.25">
@@ -8686,7 +8686,7 @@
     </row>
     <row r="1656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1656">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1657" spans="1:1" x14ac:dyDescent="0.25">
@@ -8696,12 +8696,12 @@
     </row>
     <row r="1658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1658">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1659">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1660" spans="1:1" x14ac:dyDescent="0.25">
@@ -8716,17 +8716,17 @@
     </row>
     <row r="1662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1662">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1663">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1664">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1665" spans="1:1" x14ac:dyDescent="0.25">
@@ -8741,42 +8741,42 @@
     </row>
     <row r="1667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1667">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1668">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1669">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1670">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1671">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1672">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1673">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1674">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1675" spans="1:1" x14ac:dyDescent="0.25">
@@ -8801,7 +8801,7 @@
     </row>
     <row r="1679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1679">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1680" spans="1:1" x14ac:dyDescent="0.25">
@@ -8821,7 +8821,7 @@
     </row>
     <row r="1683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1683">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1684" spans="1:1" x14ac:dyDescent="0.25">
@@ -8841,12 +8841,12 @@
     </row>
     <row r="1687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1687">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1688">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1689" spans="1:1" x14ac:dyDescent="0.25">
@@ -8861,12 +8861,12 @@
     </row>
     <row r="1691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1691">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1692">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1693" spans="1:1" x14ac:dyDescent="0.25">
@@ -8881,17 +8881,17 @@
     </row>
     <row r="1695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1695">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1696">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1697">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1698" spans="1:1" x14ac:dyDescent="0.25">
@@ -8901,7 +8901,7 @@
     </row>
     <row r="1699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1699">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1700" spans="1:1" x14ac:dyDescent="0.25">
@@ -8916,7 +8916,7 @@
     </row>
     <row r="1702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1702">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1703" spans="1:1" x14ac:dyDescent="0.25">
@@ -8941,7 +8941,7 @@
     </row>
     <row r="1707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1707">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1708" spans="1:1" x14ac:dyDescent="0.25">
@@ -8981,7 +8981,7 @@
     </row>
     <row r="1715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1715">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1716" spans="1:1" x14ac:dyDescent="0.25">
@@ -8991,7 +8991,7 @@
     </row>
     <row r="1717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1717">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1718" spans="1:1" x14ac:dyDescent="0.25">
@@ -9001,7 +9001,7 @@
     </row>
     <row r="1719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1719">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1720" spans="1:1" x14ac:dyDescent="0.25">
@@ -9011,7 +9011,7 @@
     </row>
     <row r="1721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1721">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1722" spans="1:1" x14ac:dyDescent="0.25">
@@ -9026,7 +9026,7 @@
     </row>
     <row r="1724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1724">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1725" spans="1:1" x14ac:dyDescent="0.25">
@@ -9036,7 +9036,7 @@
     </row>
     <row r="1726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1726">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1727" spans="1:1" x14ac:dyDescent="0.25">
@@ -9051,17 +9051,17 @@
     </row>
     <row r="1729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1729">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1730">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1731">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1732" spans="1:1" x14ac:dyDescent="0.25">
@@ -9076,7 +9076,7 @@
     </row>
     <row r="1734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1734">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1735" spans="1:1" x14ac:dyDescent="0.25">
@@ -9091,7 +9091,7 @@
     </row>
     <row r="1737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1737">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1738" spans="1:1" x14ac:dyDescent="0.25">
@@ -9106,22 +9106,22 @@
     </row>
     <row r="1740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1740">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1741">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1742">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1743">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1744" spans="1:1" x14ac:dyDescent="0.25">
@@ -9136,12 +9136,12 @@
     </row>
     <row r="1746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1746">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1747">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1748" spans="1:1" x14ac:dyDescent="0.25">
@@ -9151,12 +9151,12 @@
     </row>
     <row r="1749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1749">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1750">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1751" spans="1:1" x14ac:dyDescent="0.25">
@@ -9171,17 +9171,17 @@
     </row>
     <row r="1753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1753">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1754">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1755">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1756" spans="1:1" x14ac:dyDescent="0.25">
@@ -9196,12 +9196,12 @@
     </row>
     <row r="1758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1758">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1759">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1760" spans="1:1" x14ac:dyDescent="0.25">
@@ -9231,12 +9231,12 @@
     </row>
     <row r="1765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1765">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1766">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1767" spans="1:1" x14ac:dyDescent="0.25">
@@ -9256,12 +9256,12 @@
     </row>
     <row r="1770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1770">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1771">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1772" spans="1:1" x14ac:dyDescent="0.25">
@@ -9271,12 +9271,12 @@
     </row>
     <row r="1773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1773">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1774">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1775" spans="1:1" x14ac:dyDescent="0.25">
@@ -9286,12 +9286,12 @@
     </row>
     <row r="1776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1776">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1777">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1778" spans="1:1" x14ac:dyDescent="0.25">
@@ -9306,7 +9306,7 @@
     </row>
     <row r="1780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1780">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1781" spans="1:1" x14ac:dyDescent="0.25">
@@ -9316,12 +9316,12 @@
     </row>
     <row r="1782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1782">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1783">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1784" spans="1:1" x14ac:dyDescent="0.25">
@@ -9331,7 +9331,7 @@
     </row>
     <row r="1785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1785">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1786" spans="1:1" x14ac:dyDescent="0.25">
@@ -9346,12 +9346,12 @@
     </row>
     <row r="1788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1788">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1789">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1790" spans="1:1" x14ac:dyDescent="0.25">
@@ -9361,12 +9361,12 @@
     </row>
     <row r="1791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1791">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1792">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1793" spans="1:1" x14ac:dyDescent="0.25">
@@ -9406,17 +9406,17 @@
     </row>
     <row r="1800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1800">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1801">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1802" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1802">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1803" spans="1:1" x14ac:dyDescent="0.25">
@@ -9441,7 +9441,7 @@
     </row>
     <row r="1807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1807">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1808" spans="1:1" x14ac:dyDescent="0.25">
@@ -9451,12 +9451,12 @@
     </row>
     <row r="1809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1809">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1810">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1811" spans="1:1" x14ac:dyDescent="0.25">
@@ -9466,12 +9466,12 @@
     </row>
     <row r="1812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1812">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1813">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1814" spans="1:1" x14ac:dyDescent="0.25">
@@ -9496,7 +9496,7 @@
     </row>
     <row r="1818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1818">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1819" spans="1:1" x14ac:dyDescent="0.25">
@@ -9506,7 +9506,7 @@
     </row>
     <row r="1820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1820">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1821" spans="1:1" x14ac:dyDescent="0.25">
@@ -9521,7 +9521,7 @@
     </row>
     <row r="1823" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1823">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1824" spans="1:1" x14ac:dyDescent="0.25">
@@ -9531,7 +9531,7 @@
     </row>
     <row r="1825" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1825">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1826" spans="1:1" x14ac:dyDescent="0.25">
@@ -9551,7 +9551,7 @@
     </row>
     <row r="1829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1829">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1830" spans="1:1" x14ac:dyDescent="0.25">
@@ -9571,17 +9571,17 @@
     </row>
     <row r="1833" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1833">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1834">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1835">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1836" spans="1:1" x14ac:dyDescent="0.25">
@@ -9591,7 +9591,7 @@
     </row>
     <row r="1837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1837">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1838" spans="1:1" x14ac:dyDescent="0.25">
@@ -9601,7 +9601,7 @@
     </row>
     <row r="1839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1839">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1840" spans="1:1" x14ac:dyDescent="0.25">
@@ -9641,17 +9641,17 @@
     </row>
     <row r="1847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1847">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1848">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1849">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1850" spans="1:1" x14ac:dyDescent="0.25">
@@ -9661,7 +9661,7 @@
     </row>
     <row r="1851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1851">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1852" spans="1:1" x14ac:dyDescent="0.25">
@@ -9671,7 +9671,7 @@
     </row>
     <row r="1853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1853">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1854" spans="1:1" x14ac:dyDescent="0.25">
@@ -9686,12 +9686,12 @@
     </row>
     <row r="1856" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1856">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1857">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1858" spans="1:1" x14ac:dyDescent="0.25">
@@ -9726,7 +9726,7 @@
     </row>
     <row r="1864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1864">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1865" spans="1:1" x14ac:dyDescent="0.25">
@@ -9741,7 +9741,7 @@
     </row>
     <row r="1867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1867">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1868" spans="1:1" x14ac:dyDescent="0.25">
@@ -9756,7 +9756,7 @@
     </row>
     <row r="1870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1870">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1871" spans="1:1" x14ac:dyDescent="0.25">
@@ -9776,7 +9776,7 @@
     </row>
     <row r="1874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1874">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1875" spans="1:1" x14ac:dyDescent="0.25">
@@ -9796,7 +9796,7 @@
     </row>
     <row r="1878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1878">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1879" spans="1:1" x14ac:dyDescent="0.25">
@@ -9811,12 +9811,12 @@
     </row>
     <row r="1881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1881">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1882">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1883" spans="1:1" x14ac:dyDescent="0.25">
@@ -9831,22 +9831,22 @@
     </row>
     <row r="1885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1885">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1886">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1887">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1888">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1889" spans="1:1" x14ac:dyDescent="0.25">
@@ -9856,7 +9856,7 @@
     </row>
     <row r="1890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1890">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1891" spans="1:1" x14ac:dyDescent="0.25">
@@ -9866,12 +9866,12 @@
     </row>
     <row r="1892" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1892">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1893">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1894" spans="1:1" x14ac:dyDescent="0.25">
@@ -9886,7 +9886,7 @@
     </row>
     <row r="1896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1896">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1897" spans="1:1" x14ac:dyDescent="0.25">
@@ -9916,7 +9916,7 @@
     </row>
     <row r="1902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1902">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1903" spans="1:1" x14ac:dyDescent="0.25">
@@ -9931,7 +9931,7 @@
     </row>
     <row r="1905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1905">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1906" spans="1:1" x14ac:dyDescent="0.25">
@@ -9941,17 +9941,17 @@
     </row>
     <row r="1907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1907">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1908">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1909" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1909">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1910" spans="1:1" x14ac:dyDescent="0.25">
@@ -9961,27 +9961,27 @@
     </row>
     <row r="1911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1911">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1912">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1913">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1914">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1915">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1916" spans="1:1" x14ac:dyDescent="0.25">
@@ -9991,27 +9991,27 @@
     </row>
     <row r="1917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1917">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1918">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1919">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1920">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1921">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1922" spans="1:1" x14ac:dyDescent="0.25">
@@ -10036,17 +10036,17 @@
     </row>
     <row r="1926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1926">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1927">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1928">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1929" spans="1:1" x14ac:dyDescent="0.25">
@@ -10071,7 +10071,7 @@
     </row>
     <row r="1933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1933">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1934" spans="1:1" x14ac:dyDescent="0.25">
@@ -10086,7 +10086,7 @@
     </row>
     <row r="1936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1936">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1937" spans="1:1" x14ac:dyDescent="0.25">
@@ -10096,7 +10096,7 @@
     </row>
     <row r="1938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1938">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1939" spans="1:1" x14ac:dyDescent="0.25">
@@ -10106,7 +10106,7 @@
     </row>
     <row r="1940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1940">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1941" spans="1:1" x14ac:dyDescent="0.25">
@@ -10116,17 +10116,17 @@
     </row>
     <row r="1942" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1942">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1943">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1944">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1945" spans="1:1" x14ac:dyDescent="0.25">
@@ -10141,17 +10141,17 @@
     </row>
     <row r="1947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1947">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1948" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1948">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1949">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1950" spans="1:1" x14ac:dyDescent="0.25">
@@ -10166,22 +10166,22 @@
     </row>
     <row r="1952" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1952">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1953">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1954">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1955" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1955">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1956" spans="1:1" x14ac:dyDescent="0.25">
@@ -10196,17 +10196,17 @@
     </row>
     <row r="1958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1958">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1959">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1960">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1961" spans="1:1" x14ac:dyDescent="0.25">
@@ -10221,7 +10221,7 @@
     </row>
     <row r="1963" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1963">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1964" spans="1:1" x14ac:dyDescent="0.25">
@@ -10231,7 +10231,7 @@
     </row>
     <row r="1965" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1965">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1966" spans="1:1" x14ac:dyDescent="0.25">
@@ -10261,7 +10261,7 @@
     </row>
     <row r="1971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1971">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1972" spans="1:1" x14ac:dyDescent="0.25">
@@ -10271,12 +10271,12 @@
     </row>
     <row r="1973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1973">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1974">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1975" spans="1:1" x14ac:dyDescent="0.25">
@@ -10291,17 +10291,17 @@
     </row>
     <row r="1977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1977">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1978">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1979">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1980" spans="1:1" x14ac:dyDescent="0.25">
@@ -10316,7 +10316,7 @@
     </row>
     <row r="1982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1982">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1983" spans="1:1" x14ac:dyDescent="0.25">
@@ -10326,7 +10326,7 @@
     </row>
     <row r="1984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1984">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1985" spans="1:1" x14ac:dyDescent="0.25">
@@ -10346,22 +10346,22 @@
     </row>
     <row r="1988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1988">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1989">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1990" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1990">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1991" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1991">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1992" spans="1:1" x14ac:dyDescent="0.25">
@@ -10401,7 +10401,7 @@
     </row>
     <row r="1999" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1999">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2000" spans="1:1" x14ac:dyDescent="0.25">
